--- a/biology/Médecine/Éviction_scolaire/Éviction_scolaire.xlsx
+++ b/biology/Médecine/Éviction_scolaire/Éviction_scolaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89viction_scolaire</t>
+          <t>Éviction_scolaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'éviction de collectivité est le terme signifiant le fait que les enfants atteints de maladie contagieuse doivent cesser de fréquenter leur école ou leur collectivité d'enfants pendant une durée dépendant de la maladie en cause.
 En France, les durées d'éviction ont été fixées lors de l'arrêté du 3 mai 1989 et furent modifiées par le Conseil supérieur d'hygiène publique de France le 14 mars 2003 :
 Bronchiolite : non ;
 Conjonctivite : non ;
-Coqueluche : 5 jours après le début d'un traitement antibiotique macrolide (ou autre efficace si C.I.)[1],[2](30 jours avant 2003[3]) ;
+Coqueluche : 5 jours après le début d'un traitement antibiotique macrolide (ou autre efficace si C.I.),(30 jours avant 2003) ;
 Diphtérie : oui, jusqu’à négativation de deux prélèvements à 24 heures d’intervalle au moins, réalisés après la fin de l’antibiothérapie ;
 Gale commune : oui, jusqu’à 3 jours après le traitement ;
 Grippe : non ;
@@ -503,7 +515,7 @@
 Scarlatine et Angine à strepto ou TDR+ : jusqu’à 2 jours après le début de l’antibiothérapie ;
 Teigne : oui, sauf si présentation d’un certificat médical attestant d’une consultation et de la prescription d’un traitement adapté
 Tuberculose : oui, tant que le sujet est bacillifère (rare chez l’enfant), jusqu’à l’obtention d’un certificat attestant que le sujet ne l’est plus ;
-Varicelle : non (depuis 2003[4])
+Varicelle : non (depuis 2003)
 VIH : non.
 En complément :
 pour toute personne malade (par exemple présentant de la fièvre, des vomissements ou une diarrhée profuse), la fréquentation de la collectivité à la phase aiguë de la maladie infectieuse, n’est pas souhaitable, même si l’agent pathogène responsable de l’infection ne justifie pas par lui-même une éviction temporaire de la collectivité ;
@@ -520,7 +532,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89viction_scolaire</t>
+          <t>Éviction_scolaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -538,7 +550,9 @@
           <t>Guide du CSHPF</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Guide CSHPF 2003</t>
         </is>
